--- a/Excel assignment/Section2.xlsx
+++ b/Excel assignment/Section2.xlsx
@@ -1,16 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <workbookPr hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\DA-Assignment\Excel assignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984958B3-0D59-4475-AC68-E6B7D1BFD81F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2" sheetId="2" r:id="rId2"/>
+    <sheet name="Q3" sheetId="3" r:id="rId3"/>
+    <sheet name="Q4" sheetId="4" r:id="rId4"/>
+    <sheet name="Q5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Q2'!$A$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Q2'!$A$27:$A$59</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Q2'!$A$26</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Q2'!$A$27:$A$59</definedName>
+    <definedName name="Slicer_Month">#N/A</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="18" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -18,9 +46,329 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+  <si>
+    <t>You have a sales report with monthly sales data. How would you create a chart to display this data?</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Describe how you would use Excel to identify outliers in a dataset</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>outlier</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Iqr(q3-q1)</t>
+  </si>
+  <si>
+    <t>High(q3+(1*iqr))</t>
+  </si>
+  <si>
+    <t>low(q1-(1*iqr))</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conculsion is 250 is outlier in my data </t>
+  </si>
+  <si>
+    <t>Ex: 1</t>
+  </si>
+  <si>
+    <t>Ex:2</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Outlier</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conculsion is-400,1000 and 1200 is outlier in my data </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Kivell</t>
+  </si>
+  <si>
+    <t>Binder</t>
+  </si>
+  <si>
+    <t>Jardine</t>
+  </si>
+  <si>
+    <t>Gill</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>Sorvino</t>
+  </si>
+  <si>
+    <t>Andrews</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If given a large dataset, how would you use Excel to find and remove duplicates?</t>
+  </si>
+  <si>
+    <t>How to find  duplicate</t>
+  </si>
+  <si>
+    <r>
+      <t>Select the data you want to check for duplicate information. Then, from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Home</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> tab, select Conditional Formatting &gt; Highlight Cell Rules &gt; Duplicate Values</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Step1</t>
+  </si>
+  <si>
+    <t>step2</t>
+  </si>
+  <si>
+    <t>From the Conditional Formatting window that appears, click the dropdown menu under Format with to select the color scheme you'd like to use for highlighting duplicates. Then click Done</t>
+  </si>
+  <si>
+    <t>step3</t>
+  </si>
+  <si>
+    <t>Now it's redy for remove</t>
+  </si>
+  <si>
+    <t>How to remove duplicates in Excel</t>
+  </si>
+  <si>
+    <r>
+      <t>Click any cell that contains data. Then, select the Data tab &gt; Remove Duplicates</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Step1: </t>
+  </si>
+  <si>
+    <t>step2:</t>
+  </si>
+  <si>
+    <t>Select the columm from columm list. For removing duplicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step3: </t>
+  </si>
+  <si>
+    <t>Press ok and it will remove the duplicates</t>
+  </si>
+  <si>
+    <t>Explain how you would use Excel to consolidate data from multiple worksheets into one summary sheet</t>
+  </si>
+  <si>
+    <t>On the Data ribbons, select Data Tools and then Consolidate.</t>
+  </si>
+  <si>
+    <t> Select the method of consolidation</t>
+  </si>
+  <si>
+    <t> Select the data, including the labels, and click Add</t>
+  </si>
+  <si>
+    <t> Check boxes “top row”, “left column”, and “create links to data source” (note you don’t have to tick these boxes if you don’t want labels or don’t want live links) and click the OK button.</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Open all files (workbooks) that contain the data you want to consolidate.</t>
+    </r>
+  </si>
+  <si>
+    <t>Repeat step 4 for each worksheet or workbook that contains the data you need included</t>
+  </si>
+  <si>
+    <t>step4</t>
+  </si>
+  <si>
+    <t>step5</t>
+  </si>
+  <si>
+    <t>step6</t>
+  </si>
+  <si>
+    <t>Describe a scenario where you would use the IF function in project management</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Sum of Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +376,143 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,17 +520,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +637,2302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Section2.xlsx]Q1!PivotTable8</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q1'!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q1'!$J$6:$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q1'!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>340.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1099.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>543.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14F2-4FBD-A7A6-9E1821291365}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1273396911"/>
+        <c:axId val="1285673519"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1273396911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285673519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1285673519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1273396911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box plot</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box plot</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{1566A3BD-F63B-4FB8-9282-FCCC9E1C7E3D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Values</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E2ACF6-A674-4129-BF67-D94246A59657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Month">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774F86A1-460A-430A-9737-55F870C9D9E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Month"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4695825" y="2209800"/>
+              <a:ext cx="1457325" cy="2219325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A683D9-5E53-40A3-97E2-83AA665E0925}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7248525" y="5005387"/>
+              <a:ext cx="4124325" cy="3843338"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C660A6A-8BE9-429B-82A2-012AB1AE9F13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="802" b="12315"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191374" y="971549"/>
+          <a:ext cx="4714876" cy="2343151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1539D6-AFC0-4431-AFE2-41D4BCD50318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect r="600" b="6087"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153275" y="4076699"/>
+          <a:ext cx="4733925" cy="2514601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10555</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCCE97A-288A-4B6A-9A5E-4FBB3033FE74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect b="76580"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6105524"/>
+          <a:ext cx="6582805" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542499</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA65AAB-6115-4CD5-B5C6-9B301E2527A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="882" t="23216" r="12863" b="6507"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447674" y="7562850"/>
+          <a:ext cx="5447875" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>286116</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA9C7FD-2244-40F0-B3D1-250847F3AF75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="166" t="1176" r="34350" b="7057"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="10753724"/>
+          <a:ext cx="4267566" cy="3362325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="45247.706730555554" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="19" xr:uid="{B6F717FF-256A-4A29-9188-76FA0BD65BD7}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A4:G23" sheet="Q1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsBlank="1" count="13">
+        <s v="Jan"/>
+        <s v="Feb"/>
+        <s v="Mar"/>
+        <s v="Apr"/>
+        <s v="May"/>
+        <s v="Jun"/>
+        <s v="Jul"/>
+        <s v="Aug"/>
+        <s v="Sep"/>
+        <s v="Oct"/>
+        <s v="Nov"/>
+        <s v="Dec"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Rep" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Pencil"/>
+        <s v="Binder"/>
+        <s v="Pen"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Units" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="95"/>
+    </cacheField>
+    <cacheField name="Unit Cost" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.29" maxValue="19.989999999999998"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="12.9" maxValue="1879.06"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="914544004"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <x v="0"/>
+    <s v="Quebec"/>
+    <s v="Jones"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="1.99"/>
+    <n v="189.05"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Ontario"/>
+    <s v="Kivell"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="19.989999999999998"/>
+    <n v="999.49999999999989"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Ontario"/>
+    <s v="Jardine"/>
+    <x v="0"/>
+    <n v="36"/>
+    <n v="4.99"/>
+    <n v="179.64000000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Ontario"/>
+    <s v="Gill"/>
+    <x v="2"/>
+    <n v="50"/>
+    <n v="19.989999999999998"/>
+    <n v="999.49999999999989"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Alberta"/>
+    <s v="Sorvino"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="2.99"/>
+    <n v="200.33"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Quebec"/>
+    <s v="Jones"/>
+    <x v="1"/>
+    <n v="81"/>
+    <n v="4.99"/>
+    <n v="404.19"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Ontario"/>
+    <s v="Andrews"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="1.99"/>
+    <n v="141.29"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Ontario"/>
+    <s v="Jardine"/>
+    <x v="0"/>
+    <n v="30"/>
+    <n v="4.99"/>
+    <n v="149.70000000000002"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Alberta"/>
+    <s v="Thompson"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="1.99"/>
+    <n v="99.5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Quebec"/>
+    <s v="Jones"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="8.99"/>
+    <n v="539.4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Ontario"/>
+    <s v="Morgan"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="4.99"/>
+    <n v="449.1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="Quebec"/>
+    <s v="Howard"/>
+    <x v="1"/>
+    <n v="29"/>
+    <n v="1.99"/>
+    <n v="57.71"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Alberta"/>
+    <s v="Sorvino"/>
+    <x v="2"/>
+    <n v="76"/>
+    <n v="1.99"/>
+    <n v="151.24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Alberta"/>
+    <s v="Thompson"/>
+    <x v="1"/>
+    <n v="57"/>
+    <n v="19.989999999999998"/>
+    <n v="1139.4299999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Ontario"/>
+    <s v="Andrews"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="1.29"/>
+    <n v="12.9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Ontario"/>
+    <s v="Jardine"/>
+    <x v="1"/>
+    <n v="20"/>
+    <n v="4.99"/>
+    <n v="99.800000000000011"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Ontario"/>
+    <s v="Jardine"/>
+    <x v="1"/>
+    <n v="94"/>
+    <n v="19.989999999999998"/>
+    <n v="1879.06"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Ontario"/>
+    <s v="Andrews"/>
+    <x v="1"/>
+    <n v="28"/>
+    <n v="4.99"/>
+    <n v="139.72"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9396C7-22FF-4584-8226-6D1A013E2C11}" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J5:K9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="4"/>
+        <item x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Month" xr10:uid="{39F54EB7-3A0C-4568-B35C-D43ED12FDB79}" sourceName="Month">
+  <pivotTables>
+    <pivotTable tabId="1" name="PivotTable8"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="914544004">
+      <items count="13">
+        <i x="0" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="3" s="1"/>
+        <i x="4"/>
+        <i x="5" s="1"/>
+        <i x="6"/>
+        <i x="7"/>
+        <i x="8"/>
+        <i x="9"/>
+        <i x="10"/>
+        <i x="11"/>
+        <i x="12" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Month" xr10:uid="{60D37613-C004-4525-AD51-DACAFF1C4D57}" cache="Slicer_Month" caption="Month" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3197,1913 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="16">
+        <v>95</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G5" s="18">
+        <f>F5*E5</f>
+        <v>189.05</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="16">
+        <v>50</v>
+      </c>
+      <c r="F6" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" ref="G6:G22" si="0">F6*E6</f>
+        <v>999.49999999999989</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="26">
+        <v>340.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="16">
+        <v>36</v>
+      </c>
+      <c r="F7" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>179.64000000000001</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="26">
+        <v>1099.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="16">
+        <v>50</v>
+      </c>
+      <c r="F8" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>999.49999999999989</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="26">
+        <v>543.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="16">
+        <v>67</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2.99</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>200.33</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1983.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="16">
+        <v>81</v>
+      </c>
+      <c r="F10" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>404.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="16">
+        <v>71</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>141.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="16">
+        <v>30</v>
+      </c>
+      <c r="F12" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
+        <v>149.70000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="16">
+        <v>50</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="16">
+        <v>60</v>
+      </c>
+      <c r="F14" s="17">
+        <v>8.99</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
+        <v>539.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="16">
+        <v>90</v>
+      </c>
+      <c r="F15" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="16">
+        <v>29</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>57.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="16">
+        <v>76</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
+        <v>151.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="16">
+        <v>57</v>
+      </c>
+      <c r="F18" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>1139.4299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="16">
+        <v>10</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="0"/>
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="16">
+        <v>20</v>
+      </c>
+      <c r="F20" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="0"/>
+        <v>99.800000000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="16">
+        <v>94</v>
+      </c>
+      <c r="F21" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="0"/>
+        <v>1879.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="16">
+        <v>28</v>
+      </c>
+      <c r="F22" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="0"/>
+        <v>139.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C360E828-71B3-499F-8C70-915C8D820505}">
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <f>OR(A6&gt;$F$6,A6&lt;$G$6)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f>QUARTILE(A6:A15,1)</f>
+        <v>64.5</v>
+      </c>
+      <c r="D6" s="2">
+        <f>QUARTILE(A6:A15,3)</f>
+        <v>147.25</v>
+      </c>
+      <c r="E6" s="2">
+        <f>D6-C6</f>
+        <v>82.75</v>
+      </c>
+      <c r="F6" s="2">
+        <f>D6+(1*E6)</f>
+        <v>230</v>
+      </c>
+      <c r="G6" s="2">
+        <f>C6-(1*E6)</f>
+        <v>-18.25</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>89</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <f t="shared" ref="B7:B15" si="0">OR(A7&gt;$F$6,A7&lt;$G$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>150</v>
+      </c>
+      <c r="B10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>139</v>
+      </c>
+      <c r="B11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>200</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>250</v>
+      </c>
+      <c r="B15" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>166</v>
+      </c>
+      <c r="B27" s="2" t="b">
+        <f>OR(A27&gt;$F$27,A27&lt;$G$27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <f>QUARTILE(A27:A59,1)</f>
+        <v>86</v>
+      </c>
+      <c r="D27" s="2">
+        <f>QUARTILE(A27:A59,3)</f>
+        <v>439</v>
+      </c>
+      <c r="E27" s="2">
+        <f>D27-C27</f>
+        <v>353</v>
+      </c>
+      <c r="F27" s="2">
+        <f>D27+(1*E27)</f>
+        <v>792</v>
+      </c>
+      <c r="G27" s="2">
+        <f>C27-(1*E27)</f>
+        <v>-267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>439</v>
+      </c>
+      <c r="B28" s="2" t="b">
+        <f t="shared" ref="B28:B59" si="1">OR(A28&gt;$F$27,A28&lt;$G$27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>220</v>
+      </c>
+      <c r="B29" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>-400</v>
+      </c>
+      <c r="B31" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>576</v>
+      </c>
+      <c r="B33" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>283</v>
+      </c>
+      <c r="B34" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>365</v>
+      </c>
+      <c r="B35" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>525</v>
+      </c>
+      <c r="B36" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>81</v>
+      </c>
+      <c r="B37" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>103</v>
+      </c>
+      <c r="B39" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>545</v>
+      </c>
+      <c r="B41" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>180</v>
+      </c>
+      <c r="B42" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>76</v>
+      </c>
+      <c r="B43" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>290</v>
+      </c>
+      <c r="B44" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>258</v>
+      </c>
+      <c r="B46" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>525</v>
+      </c>
+      <c r="B47" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>329</v>
+      </c>
+      <c r="B48" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>179</v>
+      </c>
+      <c r="B49" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>599</v>
+      </c>
+      <c r="B50" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B51" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>382</v>
+      </c>
+      <c r="B52" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>366</v>
+      </c>
+      <c r="B53" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>72</v>
+      </c>
+      <c r="B54" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B55" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>138</v>
+      </c>
+      <c r="B56" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>416</v>
+      </c>
+      <c r="B57" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>530</v>
+      </c>
+      <c r="B58" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>341</v>
+      </c>
+      <c r="B59" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5660C461-5CBB-479B-B8D5-023823FE503D}">
+  <dimension ref="A1:N51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>44113</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="16">
+        <v>95</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G4" s="18">
+        <f>F4*E4</f>
+        <v>189.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>44114</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="16">
+        <v>50</v>
+      </c>
+      <c r="F5" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G5" s="18">
+        <f>F5*E5</f>
+        <v>999.49999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>44116</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="16">
+        <v>50</v>
+      </c>
+      <c r="F6" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G6" s="18">
+        <f>F6*E6</f>
+        <v>999.49999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9A68C4-A46C-4192-AFF4-156E759533B7}">
+  <dimension ref="A2:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+    </row>
+  </sheetData>
+  <dataConsolidate function="count" leftLabels="1" topLabels="1" link="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086172F0-736E-4713-ACDD-455AE56C32A8}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>44113</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="16">
+        <v>95</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G5" s="18">
+        <f>F5*E5</f>
+        <v>189.05</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(E5&gt;50,"good job","do better")</f>
+        <v>good job</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>44114</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="16">
+        <v>50</v>
+      </c>
+      <c r="F6" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" ref="G6:G22" si="0">F6*E6</f>
+        <v>999.49999999999989</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H22" si="1">IF(E6&gt;50,"good job","do better")</f>
+        <v>do better</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>44115</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="16">
+        <v>36</v>
+      </c>
+      <c r="F7" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>179.64000000000001</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>do better</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>44116</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="16">
+        <v>50</v>
+      </c>
+      <c r="F8" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>999.49999999999989</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>do better</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>44117</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="16">
+        <v>67</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2.99</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>200.33</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>good job</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44118</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="16">
+        <v>81</v>
+      </c>
+      <c r="F10" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>404.19</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>good job</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>44119</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="16">
+        <v>71</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>141.29</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>good job</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>44120</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="16">
+        <v>30</v>
+      </c>
+      <c r="F12" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
+        <v>149.70000000000002</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>do better</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>44121</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="16">
+        <v>50</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>99.5</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>do better</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>44122</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="16">
+        <v>60</v>
+      </c>
+      <c r="F14" s="17">
+        <v>8.99</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
+        <v>539.4</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>good job</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>44123</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="16">
+        <v>90</v>
+      </c>
+      <c r="F15" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
+        <v>449.1</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>good job</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>44124</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="16">
+        <v>29</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>57.71</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>do better</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>44125</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="16">
+        <v>76</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1.99</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
+        <v>151.24</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>good job</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>44126</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="16">
+        <v>57</v>
+      </c>
+      <c r="F18" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>1139.4299999999998</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>good job</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>44127</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="16">
+        <v>10</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="0"/>
+        <v>12.9</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>do better</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>44128</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="16">
+        <v>20</v>
+      </c>
+      <c r="F20" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="0"/>
+        <v>99.800000000000011</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>do better</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>44129</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="16">
+        <v>94</v>
+      </c>
+      <c r="F21" s="17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="0"/>
+        <v>1879.06</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>good job</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>44130</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="16">
+        <v>28</v>
+      </c>
+      <c r="F22" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="0"/>
+        <v>139.72</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>do better</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel assignment/Section2.xlsx
+++ b/Excel assignment/Section2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\DA-Assignment\Excel assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984958B3-0D59-4475-AC68-E6B7D1BFD81F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DCB3AC-5684-4A27-90F2-7A4A609B6B7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,11 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Q2'!$A$26</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Q2'!$A$27:$A$59</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Q2'!$A$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Q2'!$A$27:$A$59</definedName>
     <definedName name="Slicer_Month">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="85">
   <si>
     <t>You have a sales report with monthly sales data. How would you create a chart to display this data?</t>
   </si>
@@ -279,20 +277,6 @@
     <t> Check boxes “top row”, “left column”, and “create links to data source” (note you don’t have to tick these boxes if you don’t want labels or don’t want live links) and click the OK button.</t>
   </si>
   <si>
-    <r>
-      <t>Step 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> Open all files (workbooks) that contain the data you want to consolidate.</t>
-    </r>
-  </si>
-  <si>
     <t>Repeat step 4 for each worksheet or workbook that contains the data you need included</t>
   </si>
   <si>
@@ -357,6 +341,12 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t> Open all files (workbooks) that contain the data you want to consolidate.</t>
+  </si>
+  <si>
+    <t>step1</t>
   </si>
 </sst>
 </file>
@@ -365,10 +355,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,23 +450,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -553,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
@@ -580,7 +563,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -591,10 +574,7 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -602,14 +582,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1000,7 +984,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1038,7 +1022,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1566A3BD-F63B-4FB8-9282-FCCC9E1C7E3D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Values</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2217,8 +2201,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Month">
@@ -2241,7 +2225,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2820,7 +2804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9396C7-22FF-4584-8226-6D1A013E2C11}" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9396C7-22FF-4584-8226-6D1A013E2C11}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J5:K9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3221,7 +3205,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1</v>
@@ -3244,7 +3228,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>26</v>
@@ -3265,16 +3249,16 @@
         <f>F5*E5</f>
         <v>189.05</v>
       </c>
-      <c r="J5" s="27" t="s">
-        <v>82</v>
+      <c r="J5" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>29</v>
@@ -3295,16 +3279,16 @@
         <f t="shared" ref="G6:G22" si="0">F6*E6</f>
         <v>999.49999999999989</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="J6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="24">
         <v>340.29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>29</v>
@@ -3325,16 +3309,16 @@
         <f t="shared" si="0"/>
         <v>179.64000000000001</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="26">
+      <c r="J7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="24">
         <v>1099.3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>29</v>
@@ -3355,16 +3339,16 @@
         <f t="shared" si="0"/>
         <v>999.49999999999989</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="26">
+      <c r="J8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="24">
         <v>543.91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>35</v>
@@ -3385,16 +3369,16 @@
         <f t="shared" si="0"/>
         <v>200.33</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="26">
+      <c r="J9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="24">
         <v>1983.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>26</v>
@@ -3418,7 +3402,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>29</v>
@@ -3442,7 +3426,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>29</v>
@@ -3466,7 +3450,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>35</v>
@@ -3490,7 +3474,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>26</v>
@@ -3514,7 +3498,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>29</v>
@@ -3538,7 +3522,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>26</v>
@@ -3562,7 +3546,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>35</v>
@@ -3586,7 +3570,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>35</v>
@@ -3610,7 +3594,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>29</v>
@@ -3634,7 +3618,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>29</v>
@@ -3658,7 +3642,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>29</v>
@@ -3682,7 +3666,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>29</v>
@@ -4260,11 +4244,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4296,7 +4280,7 @@
       <c r="K3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4377,12 +4361,12 @@
       <c r="K17" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4390,7 +4374,7 @@
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4398,7 +4382,7 @@
       <c r="K33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4406,15 +4390,15 @@
       <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4433,123 +4417,185 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9A68C4-A46C-4192-AFF4-156E759533B7}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
   </sheetData>
-  <dataConsolidate function="count" leftLabels="1" topLabels="1" link="1"/>
+  <dataConsolidate function="count" topLabels="1" link="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4559,7 +4605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086172F0-736E-4713-ACDD-455AE56C32A8}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -4569,8 +4615,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>66</v>
+      <c r="A1" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4595,8 +4641,8 @@
       <c r="G4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>67</v>
+      <c r="H4" s="23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">

--- a/Excel assignment/Section2.xlsx
+++ b/Excel assignment/Section2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\DA-Assignment\Excel assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DCB3AC-5684-4A27-90F2-7A4A609B6B7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC8FCCA-0D50-4866-B4DD-4325BEFCB1D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="87">
   <si>
     <t>You have a sales report with monthly sales data. How would you create a chart to display this data?</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
   <si>
     <t>Iqr(q3-q1)</t>
@@ -347,6 +344,15 @@
   </si>
   <si>
     <t>step1</t>
+  </si>
+  <si>
+    <t>q3-q1</t>
+  </si>
+  <si>
+    <t>High (q3+(1*1qr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -589,11 +595,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3205,39 +3211,39 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="16">
         <v>95</v>
@@ -3250,24 +3256,24 @@
         <v>189.05</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="16">
         <v>50</v>
@@ -3280,7 +3286,7 @@
         <v>999.49999999999989</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="24">
         <v>340.29</v>
@@ -3288,16 +3294,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="16">
         <v>36</v>
@@ -3310,7 +3316,7 @@
         <v>179.64000000000001</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="24">
         <v>1099.3</v>
@@ -3318,16 +3324,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="E8" s="16">
         <v>50</v>
@@ -3340,7 +3346,7 @@
         <v>999.49999999999989</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" s="24">
         <v>543.91</v>
@@ -3348,16 +3354,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="16">
         <v>67</v>
@@ -3370,7 +3376,7 @@
         <v>200.33</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" s="24">
         <v>1983.5</v>
@@ -3378,16 +3384,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="16">
         <v>81</v>
@@ -3402,16 +3408,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="16">
         <v>71</v>
@@ -3426,16 +3432,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="16">
         <v>30</v>
@@ -3450,16 +3456,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="16">
         <v>50</v>
@@ -3474,16 +3480,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="16">
         <v>60</v>
@@ -3498,16 +3504,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="16">
         <v>90</v>
@@ -3522,16 +3528,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="16">
         <v>29</v>
@@ -3546,16 +3552,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="16">
         <v>76</v>
@@ -3570,16 +3576,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="16">
         <v>57</v>
@@ -3594,16 +3600,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="16">
         <v>10</v>
@@ -3618,16 +3624,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="16">
         <v>20</v>
@@ -3642,16 +3648,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="16">
         <v>94</v>
@@ -3666,16 +3672,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="16">
         <v>28</v>
@@ -3707,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C360E828-71B3-499F-8C70-915C8D820505}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3726,12 +3732,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -3743,13 +3749,13 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -3869,35 +3875,38 @@
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3937,6 +3946,26 @@
         <f t="shared" ref="B28:B59" si="1">OR(A28&gt;$F$27,A28&lt;$G$27)</f>
         <v>0</v>
       </c>
+      <c r="C28">
+        <f>QUARTILE(A27:A59,1)</f>
+        <v>86</v>
+      </c>
+      <c r="D28">
+        <f>QUARTILE(A27:A59,3)</f>
+        <v>439</v>
+      </c>
+      <c r="E28">
+        <f>D28-C28</f>
+        <v>353</v>
+      </c>
+      <c r="F28">
+        <f>D27+(1*E27)</f>
+        <v>792</v>
+      </c>
+      <c r="G28">
+        <f>C27-(1*E27)</f>
+        <v>-267</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -3983,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4244,44 +4273,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="L1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4289,13 +4318,13 @@
         <v>44113</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="16">
         <v>95</v>
@@ -4313,13 +4342,13 @@
         <v>44114</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="16">
         <v>50</v>
@@ -4337,13 +4366,13 @@
         <v>44116</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="16">
         <v>50</v>
@@ -4359,47 +4388,47 @@
     <row r="9" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4419,7 +4448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9A68C4-A46C-4192-AFF4-156E759533B7}">
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -4427,172 +4456,172 @@
   <sheetData>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="28" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
     </row>
   </sheetData>
   <dataConsolidate function="count" topLabels="1" link="1"/>
@@ -4616,33 +4645,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4650,13 +4679,13 @@
         <v>44113</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="16">
         <v>95</v>
@@ -4678,13 +4707,13 @@
         <v>44114</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="16">
         <v>50</v>
@@ -4706,13 +4735,13 @@
         <v>44115</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="16">
         <v>36</v>
@@ -4734,13 +4763,13 @@
         <v>44116</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="E8" s="16">
         <v>50</v>
@@ -4762,13 +4791,13 @@
         <v>44117</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="16">
         <v>67</v>
@@ -4790,13 +4819,13 @@
         <v>44118</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="16">
         <v>81</v>
@@ -4818,13 +4847,13 @@
         <v>44119</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="16">
         <v>71</v>
@@ -4846,13 +4875,13 @@
         <v>44120</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="16">
         <v>30</v>
@@ -4874,13 +4903,13 @@
         <v>44121</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="16">
         <v>50</v>
@@ -4902,13 +4931,13 @@
         <v>44122</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="16">
         <v>60</v>
@@ -4930,13 +4959,13 @@
         <v>44123</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="16">
         <v>90</v>
@@ -4958,13 +4987,13 @@
         <v>44124</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="16">
         <v>29</v>
@@ -4986,13 +5015,13 @@
         <v>44125</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="16">
         <v>76</v>
@@ -5014,13 +5043,13 @@
         <v>44126</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="16">
         <v>57</v>
@@ -5042,13 +5071,13 @@
         <v>44127</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="16">
         <v>10</v>
@@ -5070,13 +5099,13 @@
         <v>44128</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="16">
         <v>20</v>
@@ -5098,13 +5127,13 @@
         <v>44129</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="16">
         <v>94</v>
@@ -5126,13 +5155,13 @@
         <v>44130</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="16">
         <v>28</v>

--- a/Excel assignment/Section2.xlsx
+++ b/Excel assignment/Section2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\DA-Assignment\Excel assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC8FCCA-0D50-4866-B4DD-4325BEFCB1D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC33959C-4B16-46A9-9253-FD1C7FEBB9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="86">
   <si>
     <t>You have a sales report with monthly sales data. How would you create a chart to display this data?</t>
   </si>
@@ -350,9 +350,6 @@
   </si>
   <si>
     <t>High (q3+(1*1qr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2810,7 +2807,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9396C7-22FF-4584-8226-6D1A013E2C11}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9396C7-22FF-4584-8226-6D1A013E2C11}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J5:K9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -3713,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C360E828-71B3-499F-8C70-915C8D820505}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,7 +3891,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -3917,7 +3914,7 @@
         <f>OR(A27&gt;$F$27,A27&lt;$G$27)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="2">
         <f>QUARTILE(A27:A59,1)</f>
         <v>86</v>
       </c>
@@ -3946,23 +3943,23 @@
         <f t="shared" ref="B28:B59" si="1">OR(A28&gt;$F$27,A28&lt;$G$27)</f>
         <v>0</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <f>QUARTILE(A27:A59,1)</f>
         <v>86</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <f>QUARTILE(A27:A59,3)</f>
         <v>439</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <f>D28-C28</f>
         <v>353</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <f>D27+(1*E27)</f>
         <v>792</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <f>C27-(1*E27)</f>
         <v>-267</v>
       </c>
